--- a/Hydrophones/Noise_Correction/matching_tau_results/noise_correction_results.xlsx
+++ b/Hydrophones/Noise_Correction/matching_tau_results/noise_correction_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huck4481\Documents\GitHub\La_Jara\Hydrophones\Noise_Correction\matching_tau_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51F1755F-16DC-4482-A57A-66AAEE430A38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BF009ED-2A79-4D68-80C7-73445EA209B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9055,8 +9055,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.167001312335958"/>
-                  <c:y val="4.0546293979977437E-2"/>
+                  <c:x val="0.11807802323534589"/>
+                  <c:y val="0.25683774982124219"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -9228,132 +9228,132 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'2023'!$AJ$3:$AJ$43</c:f>
+              <c:f>'2023'!$AK$3:$AK$43</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>1.9808443158627718</c:v>
+                  <c:v>1.6023306164916791</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.2848181540971852</c:v>
+                  <c:v>1.8926401087257059</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.9078328190789398</c:v>
+                  <c:v>1.577603180434239</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.9235207880521508</c:v>
+                  <c:v>1.597388805942314</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.9174864955048601</c:v>
+                  <c:v>1.6112210905025457</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.4394365654148733</c:v>
+                  <c:v>1.2122713639881819</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.5903776368248552</c:v>
+                  <c:v>1.3482955315054186</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.5417389589585446</c:v>
+                  <c:v>1.3157050589480173</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.4765327098839185</c:v>
+                  <c:v>1.2909197425904744</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.5336706220263248</c:v>
+                  <c:v>1.3090641585820353</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.6161974848639291</c:v>
+                  <c:v>1.383903921758401</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.6150878323822884</c:v>
+                  <c:v>1.3887865720771682</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.7044302959241602</c:v>
+                  <c:v>1.4934617519613649</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.5641806970005112</c:v>
+                  <c:v>1.3827064936056632</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.5503118669298432</c:v>
+                  <c:v>1.3107124009498248</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.123350367217987</c:v>
+                  <c:v>1.8707195415844995</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.1458173813193011</c:v>
+                  <c:v>1.8776761238817394</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.3272955276167679</c:v>
+                  <c:v>2.026910506833465</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.1809157705505924</c:v>
+                  <c:v>1.888208101080491</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.1346539341112565</c:v>
+                  <c:v>1.9104443325974683</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.1659468106384274</c:v>
+                  <c:v>2.6064926314559962</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.7579554849312959</c:v>
+                  <c:v>2.2878878617036391</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.1735140761531322</c:v>
+                  <c:v>2.6833012668439662</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.1607496451743375</c:v>
+                  <c:v>2.6653962014377943</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.0727075446661334</c:v>
+                  <c:v>2.549979683940669</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.1251915217198092</c:v>
+                  <c:v>2.4612516748957671</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.0068867226904823</c:v>
+                  <c:v>2.4063567540574682</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.734687239845969</c:v>
+                  <c:v>2.1818978925511177</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.8060076562383629</c:v>
+                  <c:v>2.2568865874345612</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.5217211102089689</c:v>
+                  <c:v>2.0354709857785531</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.5357886486673351</c:v>
+                  <c:v>2.7951368943409269</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.1919039500240127</c:v>
+                  <c:v>2.6244411915732213</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.2472699349087217</c:v>
+                  <c:v>2.6251161008006578</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2.8217302436069573</c:v>
+                  <c:v>2.2603454807980481</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2.9548946560621983</c:v>
+                  <c:v>2.3265732500183569</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2.9157053990067849</c:v>
+                  <c:v>2.3299771857227998</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.0220291666132009</c:v>
+                  <c:v>2.4018397612574764</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2.4269831735356644</c:v>
+                  <c:v>1.9741671576379574</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2.5415184977662006</c:v>
+                  <c:v>2.0320099467288526</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2.5078116373487878</c:v>
+                  <c:v>2.0349829161848532</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2.5992611993727723</c:v>
+                  <c:v>2.0977470987795193</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9417,8 +9417,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.18730720773031542"/>
-                  <c:y val="0.2246607822683514"/>
+                  <c:x val="0.10763535772264539"/>
+                  <c:y val="0.35903628086966483"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -30374,8 +30374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN80"/>
   <sheetViews>
-    <sheetView topLeftCell="P13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AH51" sqref="AH51"/>
+    <sheetView topLeftCell="T27" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="AE54" sqref="AE54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36752,8 +36752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D38F4079-A6EE-4070-A855-6EDAE9ED1E0C}">
   <dimension ref="A1:AO88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="AF54" sqref="AF54"/>
+    <sheetView tabSelected="1" topLeftCell="U33" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="AH41" sqref="AH41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40160,15 +40160,15 @@
         <v>2.3865552327512338</v>
       </c>
       <c r="AK45" s="9">
-        <f t="shared" ref="AK45:AO45" si="7">AVERAGE(AK3:AK43)</f>
+        <f>AVERAGE(AK3:AK43)</f>
         <v>1.9738592177556802</v>
       </c>
       <c r="AL45" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="AK45:AO45" si="7">AVERAGE(AL3:AL43)</f>
         <v>3.7085609496792515</v>
       </c>
       <c r="AM45" s="9">
-        <f t="shared" si="7"/>
+        <f>AVERAGE(AM3:AM43)</f>
         <v>1.9690905584264888</v>
       </c>
       <c r="AN45" s="7">

--- a/Hydrophones/Noise_Correction/matching_tau_results/noise_correction_results.xlsx
+++ b/Hydrophones/Noise_Correction/matching_tau_results/noise_correction_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huck4481\Documents\GitHub\La_Jara\Hydrophones\Noise_Correction\matching_tau_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BF009ED-2A79-4D68-80C7-73445EA209B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47005807-D0AF-49CC-942F-443D6BCED5DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="128">
   <si>
     <t>rms</t>
   </si>
@@ -417,14 +417,24 @@
   <si>
     <t>072423-184500</t>
   </si>
+  <si>
+    <t xml:space="preserve">tau </t>
+  </si>
+  <si>
+    <t>ln</t>
+  </si>
+  <si>
+    <t>linear</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="172" formatCode="0E+00"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -469,7 +479,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -497,6 +507,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2019,6 +2031,624 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Matched Tau (Cal vs Match</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.11260236220472442"/>
+                  <c:y val="-1.8935185185185208E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'2023'!$B$2:$B$42</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>0.35736499964336899</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.35736499964336899</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.35736499964336899</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.35736499964336899</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.35736499964336899</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.37497654782332401</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.37497654782332401</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.37497654782332401</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.37497654782332401</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.37497654782332401</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.39573120856100902</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.39573120856100902</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.39573120856100902</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.39573120856100902</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.39573120856100902</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.452968146379014</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.452968146379014</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.452968146379014</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.452968146379014</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.452968146379014</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.49948880760551201</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.49948880760551201</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.49948880760551201</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.49948880760551201</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.49948880760551201</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.559252924609559</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.559252924609559</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.559252924609559</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.559252924609559</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.559252924609559</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.56639289032680296</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.56639289032680296</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.56639289032680296</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.47994966020721702</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.47994966020721702</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.47994966020721702</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.47994966020721702</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.47939185305731202</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.47939185305731202</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.47939185305731202</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.47939185305731202</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2023'!$L$2:$L$42</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>0.35506608000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.35506608000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.35506608000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.35506608000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.35506608000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.376777213</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.376777213</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.376777213</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.376777213</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.376777213</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.39953381599999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.39953381599999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.39953381599999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.39953381599999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.39953381599999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.44939223900000003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.44939223900000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.44939223900000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.44939223900000003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.44939223900000003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.50323377899999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.50323377899999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.50323377899999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.50323377899999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.50323377899999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.56216848100000005</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.56216848100000005</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.56216848100000005</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.56216848100000005</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.56216848100000005</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.562700329</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.562700329</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.562700329</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.475692385</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.475692385</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.475692385</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.475692385</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.475692385</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.475692385</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.475692385</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.475692385</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1519-4378-896B-8589CF406192}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="744452240"/>
+        <c:axId val="744457040"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="744452240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.31000000000000005"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="744457040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="744457040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.31000000000000005"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="744452240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
               <a:rPr lang="en-US"/>
               <a:t>Tau</a:t>
             </a:r>
@@ -3091,7 +3721,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4197,7 +4827,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5303,7 +5933,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -6409,7 +7039,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -7515,7 +8145,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -8621,7 +9251,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -9993,6 +10623,2272 @@
       </c:legendEntry>
       <c:legendEntry>
         <c:idx val="5"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2023'!$AJ$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>rms</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.1474106291836936"/>
+                  <c:y val="0.21597319519339189"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="20000"/>
+                    <a:lumOff val="80000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'2023'!$B$2:$B$42</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>0.35736499964336899</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.35736499964336899</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.35736499964336899</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.35736499964336899</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.35736499964336899</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.37497654782332401</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.37497654782332401</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.37497654782332401</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.37497654782332401</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.37497654782332401</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.39573120856100902</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.39573120856100902</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.39573120856100902</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.39573120856100902</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.39573120856100902</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.452968146379014</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.452968146379014</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.452968146379014</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.452968146379014</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.452968146379014</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.49948880760551201</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.49948880760551201</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.49948880760551201</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.49948880760551201</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.49948880760551201</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.559252924609559</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.559252924609559</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.559252924609559</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.559252924609559</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.559252924609559</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.56639289032680296</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.56639289032680296</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.56639289032680296</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.47994966020721702</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.47994966020721702</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.47994966020721702</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.47994966020721702</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.47939185305731202</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.47939185305731202</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.47939185305731202</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.47939185305731202</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2023'!$AJ$3:$AJ$43</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>1.9808443158627718</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2848181540971852</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9078328190789398</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9235207880521508</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.9174864955048601</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4394365654148733</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5903776368248552</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.5417389589585446</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.4765327098839185</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.5336706220263248</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.6161974848639291</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.6150878323822884</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.7044302959241602</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.5641806970005112</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.5503118669298432</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.123350367217987</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.1458173813193011</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.3272955276167679</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.1809157705505924</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.1346539341112565</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.1659468106384274</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.7579554849312959</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.1735140761531322</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.1607496451743375</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.0727075446661334</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.1251915217198092</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.0068867226904823</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.734687239845969</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.8060076562383629</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.5217211102089689</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.5357886486673351</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.1919039500240127</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.2472699349087217</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.8217302436069573</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.9548946560621983</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.9157053990067849</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.0220291666132009</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.4269831735356644</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.5415184977662006</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.5078116373487878</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.5992611993727723</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6400-4F3E-8E58-EAFB13239865}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2023'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>maa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.11807802323534589"/>
+                  <c:y val="0.25683774982124219"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="20000"/>
+                    <a:lumOff val="80000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'2023'!$B$2:$B$42</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>0.35736499964336899</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.35736499964336899</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.35736499964336899</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.35736499964336899</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.35736499964336899</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.37497654782332401</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.37497654782332401</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.37497654782332401</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.37497654782332401</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.37497654782332401</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.39573120856100902</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.39573120856100902</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.39573120856100902</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.39573120856100902</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.39573120856100902</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.452968146379014</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.452968146379014</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.452968146379014</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.452968146379014</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.452968146379014</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.49948880760551201</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.49948880760551201</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.49948880760551201</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.49948880760551201</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.49948880760551201</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.559252924609559</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.559252924609559</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.559252924609559</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.559252924609559</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.559252924609559</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.56639289032680296</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.56639289032680296</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.56639289032680296</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.47994966020721702</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.47994966020721702</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.47994966020721702</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.47994966020721702</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.47939185305731202</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.47939185305731202</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.47939185305731202</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.47939185305731202</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2023'!$AK$3:$AK$43</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>1.6023306164916791</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8926401087257059</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.577603180434239</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.597388805942314</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6112210905025457</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2122713639881819</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3482955315054186</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3157050589480173</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.2909197425904744</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.3090641585820353</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.383903921758401</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.3887865720771682</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.4934617519613649</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3827064936056632</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.3107124009498248</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.8707195415844995</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.8776761238817394</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.026910506833465</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.888208101080491</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9104443325974683</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.6064926314559962</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.2878878617036391</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.6833012668439662</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.6653962014377943</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.549979683940669</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.4612516748957671</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.4063567540574682</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.1818978925511177</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.2568865874345612</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.0354709857785531</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.7951368943409269</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.6244411915732213</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.6251161008006578</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.2603454807980481</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.3265732500183569</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.3299771857227998</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.4018397612574764</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.9741671576379574</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.0320099467288526</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.0349829161848532</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.0977470987795193</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-6400-4F3E-8E58-EAFB13239865}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2023'!$AM$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>mean_envelope</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.10763535772264539"/>
+                  <c:y val="0.35903628086966483"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="20000"/>
+                    <a:lumOff val="80000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'2023'!$B$2:$B$42</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>0.35736499964336899</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.35736499964336899</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.35736499964336899</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.35736499964336899</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.35736499964336899</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.37497654782332401</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.37497654782332401</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.37497654782332401</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.37497654782332401</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.37497654782332401</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.39573120856100902</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.39573120856100902</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.39573120856100902</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.39573120856100902</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.39573120856100902</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.452968146379014</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.452968146379014</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.452968146379014</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.452968146379014</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.452968146379014</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.49948880760551201</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.49948880760551201</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.49948880760551201</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.49948880760551201</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.49948880760551201</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.559252924609559</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.559252924609559</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.559252924609559</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.559252924609559</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.559252924609559</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.56639289032680296</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.56639289032680296</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.56639289032680296</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.47994966020721702</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.47994966020721702</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.47994966020721702</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.47994966020721702</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.47939185305731202</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.47939185305731202</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.47939185305731202</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.47939185305731202</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2023'!$AM$3:$AM$43</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>1.5988652710370437</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8857414906743826</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5755543146684827</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5959561871108567</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6077574223617497</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2144659161144622</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3463494250166452</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3140307770209378</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.289470274659392</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.3084849840038146</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.3823342208972549</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.3860032265854749</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.4903064962055432</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3805019736705846</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.3101791063701564</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.8667627270791181</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.8779893474035734</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.0219548762464492</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.884396214184249</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9052493325030491</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.596336261954205</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.2836972183548077</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.6714162554980425</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.6559124279142066</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.5423244941638701</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.4535924683484129</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.4012463559171588</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.1765671384469365</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.2541217264754856</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.0342295315594932</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.7843607921617006</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.6127191024191614</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.6158742167493787</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.2550973288300993</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.3206997714259283</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.3230111545108665</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.3922181546028307</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.9701244440169443</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.0274368154578304</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.029456112920919</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.0899175399445569</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-6400-4F3E-8E58-EAFB13239865}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1457537199"/>
+        <c:axId val="1457549199"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1457537199"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.31000000000000005"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Shear Stress (Pa)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1457549199"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1457549199"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Amplification Factor</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1457537199"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="4"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="5"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2023'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>mean_envelope</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:forward val="40"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.7271570446796517"/>
+                  <c:y val="-0.22003488767031237"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="20000"/>
+                    <a:lumOff val="80000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:forward val="40"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.26342893407627116"/>
+                  <c:y val="0.41253614903490482"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'2023'!$B$2:$B$42</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>0.35736499964336899</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.35736499964336899</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.35736499964336899</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.35736499964336899</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.35736499964336899</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.37497654782332401</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.37497654782332401</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.37497654782332401</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.37497654782332401</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.37497654782332401</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.39573120856100902</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.39573120856100902</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.39573120856100902</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.39573120856100902</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.39573120856100902</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.452968146379014</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.452968146379014</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.452968146379014</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.452968146379014</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.452968146379014</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.49948880760551201</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.49948880760551201</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.49948880760551201</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.49948880760551201</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.49948880760551201</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.559252924609559</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.559252924609559</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.559252924609559</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.559252924609559</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.559252924609559</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.56639289032680296</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.56639289032680296</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.56639289032680296</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.47994966020721702</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.47994966020721702</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.47994966020721702</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.47994966020721702</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.47939185305731202</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.47939185305731202</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.47939185305731202</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.47939185305731202</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2023'!$AM$3:$AM$43</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>1.5988652710370437</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8857414906743826</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5755543146684827</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5959561871108567</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6077574223617497</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2144659161144622</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3463494250166452</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3140307770209378</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.289470274659392</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.3084849840038146</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.3823342208972549</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.3860032265854749</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.4903064962055432</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3805019736705846</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.3101791063701564</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.8667627270791181</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.8779893474035734</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.0219548762464492</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.884396214184249</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9052493325030491</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.596336261954205</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.2836972183548077</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.6714162554980425</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.6559124279142066</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.5423244941638701</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.4535924683484129</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.4012463559171588</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.1765671384469365</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.2541217264754856</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.0342295315594932</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.7843607921617006</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.6127191024191614</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.6158742167493787</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.2550973288300993</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.3206997714259283</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.3230111545108665</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.3922181546028307</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.9701244440169443</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.0274368154578304</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.029456112920919</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.0899175399445569</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-3777-4230-AEF4-2F2688B45B64}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1457537199"/>
+        <c:axId val="1457549199"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1457537199"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Shear Stress (Pa)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1457549199"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1457549199"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Amplification Factor</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1457537199"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="3"/>
         <c:delete val="1"/>
       </c:legendEntry>
       <c:overlay val="0"/>
@@ -20001,69 +22897,6 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:sysClr>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>Matched Tau (Cal vs Match</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -20071,10 +22904,21 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2022'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>maa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -20085,11 +22929,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent2"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -20099,25 +22943,30 @@
             <c:spPr>
               <a:ln w="19050" cap="rnd">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent2"/>
                 </a:solidFill>
                 <a:prstDash val="sysDot"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="linear"/>
+            <c:trendlineType val="log"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.11260236220472442"/>
-                  <c:y val="-1.8935185185185208E-2"/>
+                  <c:x val="0.167001312335958"/>
+                  <c:y val="4.0546293979977437E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
-                <a:noFill/>
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="20000"/>
+                    <a:lumOff val="80000"/>
+                  </a:schemeClr>
+                </a:solidFill>
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
@@ -20147,12 +22996,12 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'2023'!$B$2:$B$42</c:f>
+              <c:f>'2022'!$B$2:$B$73</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="72"/>
                 <c:pt idx="0">
-                  <c:v>0.35736499964336899</c:v>
+                  <c:v>0.36806210257484301</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.35736499964336899</c:v>
@@ -20161,117 +23010,210 @@
                   <c:v>0.35736499964336899</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.35736499964336899</c:v>
+                  <c:v>0.34238738474798203</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.35736499964336899</c:v>
+                  <c:v>0.36328325080216001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.37497654782332401</c:v>
+                  <c:v>0.36328325080216001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.37497654782332401</c:v>
+                  <c:v>0.368327325120411</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.37497654782332401</c:v>
+                  <c:v>0.36342783558528602</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.37497654782332401</c:v>
+                  <c:v>0.36342783558528602</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.37497654782332401</c:v>
+                  <c:v>0.46686545511200001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.39573120856100902</c:v>
+                  <c:v>0.46686545511200001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.39573120856100902</c:v>
+                  <c:v>0.46686545511200001</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0.39573120856100902</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.39573120856100902</c:v>
+                  <c:v>0.43651642997928197</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.39573120856100902</c:v>
+                  <c:v>0.43651642997928197</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>0.43651642997928197</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.368685200781385</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.41193536150641702</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.41193536150641702</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.38446658554131402</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.42948982380128797</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.42948982380128797</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.41319095145866302</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.41319095145866302</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>0.452968146379014</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="25">
                   <c:v>0.452968146379014</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="26">
                   <c:v>0.452968146379014</c:v>
                 </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.452968146379014</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.452968146379014</c:v>
-                </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="27">
+                  <c:v>0.45740310650690502</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.45740310650690502</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.45740310650690502</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.49084660866292901</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.49084660866292901</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.49084660866292901</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.462678059372443</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.462678059372443</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.462678059372443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.51066082864599005</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.51066082864599005</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.51066082864599005</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.51066082864599005</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>0.49948880760551201</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="41">
                   <c:v>0.49948880760551201</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="42">
                   <c:v>0.49948880760551201</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="43">
                   <c:v>0.49948880760551201</c:v>
                 </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.49948880760551201</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.559252924609559</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.559252924609559</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.559252924609559</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.559252924609559</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.559252924609559</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.56639289032680296</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.56639289032680296</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.56639289032680296</c:v>
-                </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="44">
+                  <c:v>0.52493217096050204</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.52493217096050204</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.52493217096050204</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.55313073676003</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.55313073676003</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.55313073676003</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.54902198216375997</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.51518808111729397</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.51518808111729397</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.51518808111729397</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.51518808111729397</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.50858816053242095</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.50858816053242095</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.50858816053242095</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.50858816053242095</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.50858816053242095</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.46638934380788899</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.46638934380788899</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.46638934380788899</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.46357925032941799</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.46357925032941799</c:v>
+                </c:pt>
+                <c:pt idx="65">
                   <c:v>0.47994966020721702</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="66">
                   <c:v>0.47994966020721702</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="67">
                   <c:v>0.47994966020721702</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="68">
                   <c:v>0.47994966020721702</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="69">
                   <c:v>0.47939185305731202</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="70">
                   <c:v>0.47939185305731202</c:v>
                 </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.47939185305731202</c:v>
-                </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="71">
                   <c:v>0.47939185305731202</c:v>
                 </c:pt>
               </c:numCache>
@@ -20279,132 +23221,222 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'2023'!$L$2:$L$42</c:f>
+              <c:f>'2022'!$AJ$3:$AJ$73</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="71"/>
                 <c:pt idx="0">
-                  <c:v>0.35506608000000001</c:v>
+                  <c:v>3.7101646032174225</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.35506608000000001</c:v>
+                  <c:v>3.8065107019357241</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.35506608000000001</c:v>
+                  <c:v>3.8264734565961387</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.35506608000000001</c:v>
+                  <c:v>3.7648911986911773</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.35506608000000001</c:v>
+                  <c:v>3.6179671150443271</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.376777213</c:v>
+                  <c:v>3.5627079798113712</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.376777213</c:v>
+                  <c:v>3.5668059158019467</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.376777213</c:v>
+                  <c:v>3.5060722129445727</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.376777213</c:v>
+                  <c:v>3.4525221080400841</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.376777213</c:v>
+                  <c:v>3.0581487023385474</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.39953381599999999</c:v>
+                  <c:v>2.8684893955518462</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.39953381599999999</c:v>
+                  <c:v>2.9842002838835264</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.39953381599999999</c:v>
+                  <c:v>2.8850246718942398</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.39953381599999999</c:v>
+                  <c:v>2.9163004727139339</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.39953381599999999</c:v>
+                  <c:v>3.0198029076027839</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.44939223900000003</c:v>
+                  <c:v>2.952228365388438</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.44939223900000003</c:v>
+                  <c:v>3.0950466592041015</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.44939223900000003</c:v>
+                  <c:v>3.9859643568173873</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.44939223900000003</c:v>
+                  <c:v>4.0809994870617317</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.44939223900000003</c:v>
+                  <c:v>4.0955416053372673</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.50323377899999999</c:v>
+                  <c:v>3.9849250054130221</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.50323377899999999</c:v>
+                  <c:v>3.8937738200382377</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.50323377899999999</c:v>
+                  <c:v>3.9598616088195793</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.50323377899999999</c:v>
+                  <c:v>3.9762411896126157</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.50323377899999999</c:v>
+                  <c:v>3.9786620149246961</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.56216848100000005</c:v>
+                  <c:v>4.0346962606310859</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.56216848100000005</c:v>
+                  <c:v>4.0775613624920197</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.56216848100000005</c:v>
+                  <c:v>3.9616733567915698</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.56216848100000005</c:v>
+                  <c:v>3.9305507042549701</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.56216848100000005</c:v>
+                  <c:v>4.1096577340110887</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.562700329</c:v>
+                  <c:v>4.0719683658793677</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.562700329</c:v>
+                  <c:v>4.3456697919556682</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.562700329</c:v>
+                  <c:v>3.7981316632753899</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.475692385</c:v>
+                  <c:v>4.763544547194817</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.475692385</c:v>
+                  <c:v>4.7961406258211321</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.475692385</c:v>
+                  <c:v>4.4745957463163721</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.475692385</c:v>
+                  <c:v>4.8153318013828912</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.475692385</c:v>
+                  <c:v>4.6389007584692594</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.475692385</c:v>
+                  <c:v>4.7409354101405157</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.475692385</c:v>
+                  <c:v>4.8637320870681018</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.475692385</c:v>
+                  <c:v>4.7765268326527082</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5.2359203349326764</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.8809075967950619</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5.0410084363295562</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.6169287898684868</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.6503246506174509</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5.4612806648931063</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>6.1296787219532805</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5.9101649566946239</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>6.0649120959265836</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>6.051550621116375</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.264812219909536</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.3246722832712043</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.2689274478899781</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5.1550879387017439</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5.0175915087533225</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5.0922750051319845</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.1564017921626304</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.1179855712850957</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5.1313430165244593</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>4.3901981439831923</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>4.1944694438101262</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4.2958074314110855</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>4.8646377523137385</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4.8166825079418665</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>4.6987090875953026</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>4.5523713092149789</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>4.6604921123438832</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>4.539020817082343</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>4.1565057620492754</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3.9475337114308715</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20412,7 +23444,552 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1519-4378-896B-8589CF406192}"/>
+              <c16:uniqueId val="{00000003-3015-42E3-9A2F-A3DA9DCD536C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2022'!$AL$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>mean_envelope</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.17597157761650836"/>
+                  <c:y val="0.15364841794067069"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="20000"/>
+                    <a:lumOff val="80000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'2022'!$B$2:$B$73</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="72"/>
+                <c:pt idx="0">
+                  <c:v>0.36806210257484301</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.35736499964336899</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.35736499964336899</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.34238738474798203</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.36328325080216001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.36328325080216001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.368327325120411</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.36342783558528602</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.36342783558528602</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.46686545511200001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.46686545511200001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.46686545511200001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.39573120856100902</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.43651642997928197</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.43651642997928197</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.43651642997928197</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.368685200781385</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.41193536150641702</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.41193536150641702</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.38446658554131402</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.42948982380128797</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.42948982380128797</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.41319095145866302</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.41319095145866302</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.452968146379014</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.452968146379014</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.452968146379014</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.45740310650690502</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.45740310650690502</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.45740310650690502</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.49084660866292901</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.49084660866292901</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.49084660866292901</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.462678059372443</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.462678059372443</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.462678059372443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.51066082864599005</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.51066082864599005</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.51066082864599005</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.51066082864599005</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.49948880760551201</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.49948880760551201</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.49948880760551201</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.49948880760551201</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.52493217096050204</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.52493217096050204</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.52493217096050204</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.55313073676003</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.55313073676003</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.55313073676003</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.54902198216375997</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.51518808111729397</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.51518808111729397</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.51518808111729397</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.51518808111729397</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.50858816053242095</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.50858816053242095</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.50858816053242095</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.50858816053242095</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.50858816053242095</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.46638934380788899</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.46638934380788899</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.46638934380788899</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.46357925032941799</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.46357925032941799</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.47994966020721702</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.47994966020721702</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.47994966020721702</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.47994966020721702</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.47939185305731202</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.47939185305731202</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.47939185305731202</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2022'!$AL$3:$AL$73</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="71"/>
+                <c:pt idx="0">
+                  <c:v>3.7041993633606389</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.7981403339245405</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.8188056529986656</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.7550126128923633</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.6106199881037497</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.5571198987715076</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.5623621728377666</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5007529611424633</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.4488808181951809</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.0576633480307409</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.8665538180589833</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.981937849084686</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.8833014847228458</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.9172107839255199</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.0174910263329084</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.9476976989148342</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.0946440793216992</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.9824954144200708</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.0766693570133414</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.0884796692866834</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.9762030431119451</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.8871625897184434</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.9514183145935031</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.9666510115320937</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.9734597289499556</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.0288965692580909</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.0702249890518143</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.953928536998089</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.9251360325703151</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.1024268095674623</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.0634122109031638</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.3373192885183336</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.7930826816456276</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.7516540576062454</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.7868751479256284</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.4667358568056814</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.8055736315605637</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.6319722155573482</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.7334285617590792</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.8548858628062108</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.7627370107641083</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5.2153233742009633</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.8711170670439641</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5.0253109905628879</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.6117370177322003</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.6426128109213831</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5.444338265125646</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>6.1111500664956813</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5.8908127854437868</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>6.0432857385071594</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>6.0382585504002613</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.2526300555028085</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.313394753014137</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.2564889225217728</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5.1404886801481799</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5.0029828187512413</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5.0826833814886907</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.1461189757579415</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.1083417351334068</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5.1161026065616255</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>4.3828433847122383</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>4.187316773706077</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4.2883028405992585</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>4.8535671328881351</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4.8102645774979136</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>4.6874913292836062</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>4.5440088515635484</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>4.6493134477097238</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>4.5300800548861755</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>4.1484885329389281</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3.9446909915831849</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-3015-42E3-9A2F-A3DA9DCD536C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -20424,11 +24001,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="744452240"/>
-        <c:axId val="744457040"/>
+        <c:axId val="1457537199"/>
+        <c:axId val="1457549199"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="744452240"/>
+        <c:axId val="1457537199"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.31000000000000005"/>
@@ -20449,6 +24026,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Shear Stress (Pa)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -20486,15 +24118,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="744457040"/>
+        <c:crossAx val="1457549199"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="744457040"/>
+        <c:axId val="1457549199"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="0.31000000000000005"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -20512,7 +24143,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Amplification Factor</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -20549,7 +24235,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="744452240"/>
+        <c:crossAx val="1457537199"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -20561,6 +24247,45 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -20925,6 +24650,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors17.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors18.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors19.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -25373,6 +29218,1554 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style17.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style18.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style19.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -29801,6 +35194,44 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>291604</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>143089</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>8717</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>77280</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F14047A2-0930-4AE2-8606-288527717600}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -30106,6 +35537,82 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>282465</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>164225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>560065</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>98416</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0B77262-E284-47EC-84BA-FA157D1C94E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>448175</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>158840</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>116175</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>93031</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C480C163-7DEA-4FEC-AC8E-1D300F94E2A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -30374,8 +35881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN80"/>
   <sheetViews>
-    <sheetView topLeftCell="T27" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="AE54" sqref="AE54"/>
+    <sheetView topLeftCell="U42" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AI68" sqref="AI68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36752,8 +42259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D38F4079-A6EE-4070-A855-6EDAE9ED1E0C}">
   <dimension ref="A1:AO88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U33" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="AH41" sqref="AH41"/>
+    <sheetView tabSelected="1" topLeftCell="R46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Z95" sqref="Z95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36775,6 +42282,7 @@
     <col min="17" max="17" width="13.85546875" customWidth="1"/>
     <col min="18" max="18" width="15.5703125" customWidth="1"/>
     <col min="19" max="19" width="15.42578125" customWidth="1"/>
+    <col min="35" max="35" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="13.28515625" customWidth="1"/>
     <col min="37" max="37" width="13.5703125" customWidth="1"/>
     <col min="38" max="38" width="13.85546875" customWidth="1"/>
@@ -40164,7 +45672,7 @@
         <v>1.9738592177556802</v>
       </c>
       <c r="AL45" s="7">
-        <f t="shared" ref="AK45:AO45" si="7">AVERAGE(AL3:AL43)</f>
+        <f t="shared" ref="AL45:AO45" si="7">AVERAGE(AL3:AL43)</f>
         <v>3.7085609496792515</v>
       </c>
       <c r="AM45" s="9">
@@ -40345,52 +45853,87 @@
     <row r="64" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D64" s="4"/>
     </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:37" x14ac:dyDescent="0.25">
       <c r="D65" s="4"/>
+      <c r="AI65" t="s">
+        <v>126</v>
+      </c>
+      <c r="AK65" t="s">
+        <v>127</v>
+      </c>
     </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:37" x14ac:dyDescent="0.25">
       <c r="D66" s="4"/>
+      <c r="AI66" s="11">
+        <f>170-4.0311</f>
+        <v>165.96889999999999</v>
+      </c>
     </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:37" x14ac:dyDescent="0.25">
       <c r="D67" s="4"/>
+      <c r="AI67" s="11">
+        <f>AI66/2.587</f>
+        <v>64.154967143409351</v>
+      </c>
+      <c r="AJ67">
+        <f>12831/200</f>
+        <v>64.155000000000001</v>
+      </c>
     </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:37" x14ac:dyDescent="0.25">
       <c r="D68" s="4"/>
+      <c r="AH68" t="s">
+        <v>125</v>
+      </c>
+      <c r="AI68" s="12">
+        <f>EXP(AI67)</f>
+        <v>7.2802822537033916E+27</v>
+      </c>
+      <c r="AK68" s="7">
+        <f>(170+0.6343)/5.7076</f>
+        <v>29.895980797533113</v>
+      </c>
     </row>
-    <row r="69" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="4:37" x14ac:dyDescent="0.25">
       <c r="D69" s="4"/>
+      <c r="AI69" s="12"/>
     </row>
-    <row r="70" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="4:37" x14ac:dyDescent="0.25">
       <c r="D70" s="4"/>
+      <c r="AI70" s="12">
+        <f>LN(AI68)</f>
+        <v>64.154967143409351</v>
+      </c>
     </row>
-    <row r="71" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="4:37" x14ac:dyDescent="0.25">
       <c r="D71" s="4"/>
+      <c r="AI71" s="12"/>
     </row>
-    <row r="72" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="4:37" x14ac:dyDescent="0.25">
       <c r="D72" s="4"/>
     </row>
-    <row r="73" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="4:37" x14ac:dyDescent="0.25">
       <c r="D73" s="4"/>
     </row>
-    <row r="74" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="4:37" x14ac:dyDescent="0.25">
       <c r="D74" s="4"/>
     </row>
-    <row r="75" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="4:37" x14ac:dyDescent="0.25">
       <c r="D75" s="4"/>
     </row>
-    <row r="76" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="4:37" x14ac:dyDescent="0.25">
       <c r="D76" s="4"/>
     </row>
-    <row r="77" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="4:37" x14ac:dyDescent="0.25">
       <c r="D77" s="4"/>
     </row>
-    <row r="78" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="4:37" x14ac:dyDescent="0.25">
       <c r="D78" s="4"/>
     </row>
-    <row r="79" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="4:37" x14ac:dyDescent="0.25">
       <c r="D79" s="4"/>
     </row>
-    <row r="80" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="4:37" x14ac:dyDescent="0.25">
       <c r="D80" s="4"/>
     </row>
     <row r="81" spans="4:4" x14ac:dyDescent="0.25">
